--- a/module classe projet/ModulePrincipal/tft.xlsx
+++ b/module classe projet/ModulePrincipal/tft.xlsx
@@ -520,34 +520,34 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -730,34 +730,34 @@
         <v>17</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -765,34 +765,34 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>0</v>
+        <v>880000</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>0</v>
+        <v>1320000</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0</v>
+        <v>1760000</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>0</v>
+        <v>2200000</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>0</v>
+        <v>2640000</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>0</v>
+        <v>3080000</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>0</v>
+        <v>3520000</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>0</v>
+        <v>3960000</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>0</v>
+        <v>4400000</v>
       </c>
     </row>
   </sheetData>

--- a/module classe projet/ModulePrincipal/tft.xlsx
+++ b/module classe projet/ModulePrincipal/tft.xlsx
@@ -520,34 +520,34 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -555,7 +555,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>0</v>
@@ -730,34 +730,34 @@
         <v>17</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>440000</v>
+        <v>1000</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>440000</v>
+        <v>3000</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -765,34 +765,34 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>440000</v>
+        <v>1000</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>880000</v>
+        <v>1000</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>1320000</v>
+        <v>4000</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>1760000</v>
+        <v>4000</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>2200000</v>
+        <v>4000</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>2640000</v>
+        <v>4000</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>3080000</v>
+        <v>4000</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>3520000</v>
+        <v>4000</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>3960000</v>
+        <v>4000</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>4400000</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/module classe projet/ModulePrincipal/tft.xlsx
+++ b/module classe projet/ModulePrincipal/tft.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
-  <si>
-    <t>TFT Projet Ecole Secondaire</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+  <si>
+    <t>TFT Projet Ecole</t>
   </si>
   <si>
     <t>A1</t>
@@ -50,22 +50,49 @@
     <t>A10</t>
   </si>
   <si>
-    <t>Resultat Net</t>
+    <t>Flux du Projet</t>
+  </si>
+  <si>
+    <t>Resultat Avant Impôts</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>Amortissement</t>
+  </si>
+  <si>
+    <t>Variation BFR</t>
+  </si>
+  <si>
+    <t>Flux d'Invesstissement</t>
+  </si>
+  <si>
+    <t>Achat de terrain</t>
+  </si>
+  <si>
+    <t>Achat de biens immobiliers construits</t>
+  </si>
+  <si>
+    <t>Flux de financement</t>
   </si>
   <si>
     <t>Fond Propres</t>
   </si>
   <si>
-    <t>Dette Injectée</t>
-  </si>
-  <si>
-    <t>IS</t>
+    <t>Levée de Dette</t>
+  </si>
+  <si>
+    <t>Apport en CCA</t>
   </si>
   <si>
     <t>Remboursement de la dette</t>
   </si>
   <si>
-    <t>Interets financiers</t>
+    <t>Remboursement CCA</t>
+  </si>
+  <si>
+    <t>Distribution Dividendes</t>
   </si>
   <si>
     <t>Flux de trésorerie</t>
@@ -79,7 +106,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -105,10 +132,22 @@
       <name val="Calibri"/>
       <b val="1"/>
       <color rgb="00000000"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -118,6 +157,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00C00000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AEAAAA"/>
       </patternFill>
     </fill>
     <fill>
@@ -144,7 +188,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
@@ -153,11 +197,17 @@
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment horizontal="left" indent="5" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
@@ -166,16 +216,24 @@
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="left" indent="5" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
     <cellStyle builtinId="16" hidden="0" name="Headline 1" xfId="1"/>
     <cellStyle hidden="0" name="style1" xfId="2"/>
-    <cellStyle hidden="0" name="style3" xfId="3"/>
-    <cellStyle hidden="0" name="style3_numbers" xfId="4"/>
+    <cellStyle hidden="0" name="style2" xfId="3"/>
+    <cellStyle hidden="0" name="style4" xfId="4"/>
+    <cellStyle hidden="0" name="style4_numbers" xfId="5"/>
+    <cellStyle hidden="0" name="style2_numbers" xfId="6"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -470,7 +528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,174 +577,154 @@
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B4" s="3" t="s"/>
+      <c r="C4" s="3" t="s"/>
+      <c r="D4" s="3" t="s"/>
+      <c r="E4" s="3" t="s"/>
+      <c r="F4" s="3" t="s"/>
+      <c r="G4" s="3" t="s"/>
+      <c r="H4" s="3" t="s"/>
+      <c r="I4" s="3" t="s"/>
+      <c r="J4" s="3" t="s"/>
+      <c r="K4" s="3" t="s"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="n">
+      <c r="B5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="n">
+      <c r="B6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="n">
+      <c r="B7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4" t="n">
+      <c r="B8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,105 +732,374 @@
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" s="3" t="s"/>
+      <c r="C9" s="3" t="s"/>
+      <c r="D9" s="3" t="s"/>
+      <c r="E9" s="3" t="s"/>
+      <c r="F9" s="3" t="s"/>
+      <c r="G9" s="3" t="s"/>
+      <c r="H9" s="3" t="s"/>
+      <c r="I9" s="3" t="s"/>
+      <c r="J9" s="3" t="s"/>
+      <c r="K9" s="3" t="s"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4" t="n">
+      <c r="B10" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>4000</v>
+      <c r="B11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s"/>
+      <c r="C12" s="3" t="s"/>
+      <c r="D12" s="3" t="s"/>
+      <c r="E12" s="3" t="s"/>
+      <c r="F12" s="3" t="s"/>
+      <c r="G12" s="3" t="s"/>
+      <c r="H12" s="3" t="s"/>
+      <c r="I12" s="3" t="s"/>
+      <c r="J12" s="3" t="s"/>
+      <c r="K12" s="3" t="s"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>450</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="6" t="n">
+        <v>150</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>450</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>150</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>150</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>600</v>
+      </c>
+      <c r="K20" s="6" t="n">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/module classe projet/ModulePrincipal/tft.xlsx
+++ b/module classe projet/ModulePrincipal/tft.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>TFT Projet Ecole</t>
   </si>
@@ -71,7 +71,10 @@
     <t>Achat de terrain</t>
   </si>
   <si>
-    <t>Achat de biens immobiliers construits</t>
+    <t>Cout de construction de biens immobilier</t>
+  </si>
+  <si>
+    <t>Frais de licences et autorisations</t>
   </si>
   <si>
     <t>Flux de financement</t>
@@ -528,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,7 +751,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>0</v>
@@ -783,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
@@ -808,54 +811,51 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s"/>
-      <c r="C12" s="3" t="s"/>
-      <c r="D12" s="3" t="s"/>
-      <c r="E12" s="3" t="s"/>
-      <c r="F12" s="3" t="s"/>
-      <c r="G12" s="3" t="s"/>
-      <c r="H12" s="3" t="s"/>
-      <c r="I12" s="3" t="s"/>
-      <c r="J12" s="3" t="s"/>
-      <c r="K12" s="3" t="s"/>
+      <c r="B12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>150</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" s="3" t="s"/>
+      <c r="C13" s="3" t="s"/>
+      <c r="D13" s="3" t="s"/>
+      <c r="E13" s="3" t="s"/>
+      <c r="F13" s="3" t="s"/>
+      <c r="G13" s="3" t="s"/>
+      <c r="H13" s="3" t="s"/>
+      <c r="I13" s="3" t="s"/>
+      <c r="J13" s="3" t="s"/>
+      <c r="K13" s="3" t="s"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
@@ -1033,37 +1033,37 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>450</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6" t="n">
+      <c r="B19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1072,34 +1072,69 @@
         <v>27</v>
       </c>
       <c r="B20" s="6" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>600</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/module classe projet/ModulePrincipal/tft.xlsx
+++ b/module classe projet/ModulePrincipal/tft.xlsx
@@ -15,39 +15,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>TFT Projet Ecole</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>M10</t>
   </si>
   <si>
     <t>Flux du Projet</t>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Achat de terrain</t>
-  </si>
-  <si>
-    <t>Cout de construction de biens immobilier</t>
   </si>
   <si>
     <t>Frais de licences et autorisations</t>
@@ -531,7 +528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,34 +593,34 @@
         <v>12</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>0</v>
+        <v>-830000</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0</v>
+        <v>-830000</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0</v>
+        <v>-830000</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0</v>
+        <v>-830000</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0</v>
+        <v>-830000</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0</v>
+        <v>-830000</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0</v>
+        <v>-830000</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0</v>
+        <v>-830000</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0</v>
+        <v>-830000</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0</v>
+        <v>-830000</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -658,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -777,6 +774,9 @@
       <c r="J10" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="K10" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
@@ -809,53 +809,59 @@
       <c r="J11" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="K11" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="3" t="s"/>
+      <c r="C12" s="3" t="s"/>
+      <c r="D12" s="3" t="s"/>
+      <c r="E12" s="3" t="s"/>
+      <c r="F12" s="3" t="s"/>
+      <c r="G12" s="3" t="s"/>
+      <c r="H12" s="3" t="s"/>
+      <c r="I12" s="3" t="s"/>
+      <c r="J12" s="3" t="s"/>
+      <c r="K12" s="3" t="s"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3" t="s"/>
-      <c r="C13" s="3" t="s"/>
-      <c r="D13" s="3" t="s"/>
-      <c r="E13" s="3" t="s"/>
-      <c r="F13" s="3" t="s"/>
-      <c r="G13" s="3" t="s"/>
-      <c r="H13" s="3" t="s"/>
-      <c r="I13" s="3" t="s"/>
-      <c r="J13" s="3" t="s"/>
-      <c r="K13" s="3" t="s"/>
+      <c r="B13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
@@ -1033,38 +1039,38 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>0</v>
+      <c r="B19" s="6" t="n">
+        <v>-830000</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-830000</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-830000</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-830000</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-830000</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-830000</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-830000</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-830000</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-830000</v>
+      </c>
+      <c r="K19" s="6" t="n">
+        <v>-830000</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1072,69 +1078,34 @@
         <v>27</v>
       </c>
       <c r="B20" s="6" t="n">
-        <v>0</v>
+        <v>-830000</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0</v>
+        <v>-1660000</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0</v>
+        <v>-2490000</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0</v>
+        <v>-3320000</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0</v>
+        <v>-4150000</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0</v>
+        <v>-4980000</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0</v>
+        <v>-5810000</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0</v>
+        <v>-6640000</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0</v>
+        <v>-7470000</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6" t="n">
-        <v>0</v>
+        <v>-8300000</v>
       </c>
     </row>
   </sheetData>

--- a/module classe projet/ModulePrincipal/tft.xlsx
+++ b/module classe projet/ModulePrincipal/tft.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
-  <si>
-    <t>TFT Projet Ecole</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+  <si>
+    <t>TFT Projet Projet Immobilier</t>
   </si>
   <si>
     <t>M1</t>
@@ -50,6 +50,84 @@
     <t>M10</t>
   </si>
   <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>M17</t>
+  </si>
+  <si>
+    <t>M18</t>
+  </si>
+  <si>
+    <t>M19</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>M21</t>
+  </si>
+  <si>
+    <t>M22</t>
+  </si>
+  <si>
+    <t>M23</t>
+  </si>
+  <si>
+    <t>M24</t>
+  </si>
+  <si>
+    <t>M25</t>
+  </si>
+  <si>
+    <t>M26</t>
+  </si>
+  <si>
+    <t>M27</t>
+  </si>
+  <si>
+    <t>M28</t>
+  </si>
+  <si>
+    <t>M29</t>
+  </si>
+  <si>
+    <t>M30</t>
+  </si>
+  <si>
+    <t>M31</t>
+  </si>
+  <si>
+    <t>M32</t>
+  </si>
+  <si>
+    <t>M33</t>
+  </si>
+  <si>
+    <t>M34</t>
+  </si>
+  <si>
+    <t>M35</t>
+  </si>
+  <si>
+    <t>M36</t>
+  </si>
+  <si>
     <t>Flux du Projet</t>
   </si>
   <si>
@@ -69,9 +147,6 @@
   </si>
   <si>
     <t>Achat de terrain</t>
-  </si>
-  <si>
-    <t>Frais de licences et autorisations</t>
   </si>
   <si>
     <t>Flux de financement</t>
@@ -528,7 +603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:AK19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,12 +611,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:37">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -572,10 +647,88 @@
       <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:37">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s"/>
       <c r="C4" s="3" t="s"/>
@@ -587,45 +740,149 @@
       <c r="I4" s="3" t="s"/>
       <c r="J4" s="3" t="s"/>
       <c r="K4" s="3" t="s"/>
+      <c r="L4" s="3" t="s"/>
+      <c r="M4" s="3" t="s"/>
+      <c r="N4" s="3" t="s"/>
+      <c r="O4" s="3" t="s"/>
+      <c r="P4" s="3" t="s"/>
+      <c r="Q4" s="3" t="s"/>
+      <c r="R4" s="3" t="s"/>
+      <c r="S4" s="3" t="s"/>
+      <c r="T4" s="3" t="s"/>
+      <c r="U4" s="3" t="s"/>
+      <c r="V4" s="3" t="s"/>
+      <c r="W4" s="3" t="s"/>
+      <c r="X4" s="3" t="s"/>
+      <c r="Y4" s="3" t="s"/>
+      <c r="Z4" s="3" t="s"/>
+      <c r="AA4" s="3" t="s"/>
+      <c r="AB4" s="3" t="s"/>
+      <c r="AC4" s="3" t="s"/>
+      <c r="AD4" s="3" t="s"/>
+      <c r="AE4" s="3" t="s"/>
+      <c r="AF4" s="3" t="s"/>
+      <c r="AG4" s="3" t="s"/>
+      <c r="AH4" s="3" t="s"/>
+      <c r="AI4" s="3" t="s"/>
+      <c r="AJ4" s="3" t="s"/>
+      <c r="AK4" s="3" t="s"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:37">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>-830000</v>
+        <v>660000</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-830000</v>
+        <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-830000</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-830000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-830000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-830000</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-830000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-830000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-830000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-830000</v>
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>660000</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>3080000</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5" t="n">
+        <v>660000</v>
+      </c>
+      <c r="Z5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:37">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>0</v>
@@ -655,12 +912,90 @@
         <v>0</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0</v>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>396000</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>1122000</v>
+      </c>
+      <c r="Z6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:37">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>0</v>
@@ -692,10 +1027,88 @@
       <c r="K7" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="L7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:37">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>0</v>
@@ -727,10 +1140,88 @@
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="L8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:37">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3" t="s"/>
       <c r="C9" s="3" t="s"/>
@@ -742,10 +1233,36 @@
       <c r="I9" s="3" t="s"/>
       <c r="J9" s="3" t="s"/>
       <c r="K9" s="3" t="s"/>
+      <c r="L9" s="3" t="s"/>
+      <c r="M9" s="3" t="s"/>
+      <c r="N9" s="3" t="s"/>
+      <c r="O9" s="3" t="s"/>
+      <c r="P9" s="3" t="s"/>
+      <c r="Q9" s="3" t="s"/>
+      <c r="R9" s="3" t="s"/>
+      <c r="S9" s="3" t="s"/>
+      <c r="T9" s="3" t="s"/>
+      <c r="U9" s="3" t="s"/>
+      <c r="V9" s="3" t="s"/>
+      <c r="W9" s="3" t="s"/>
+      <c r="X9" s="3" t="s"/>
+      <c r="Y9" s="3" t="s"/>
+      <c r="Z9" s="3" t="s"/>
+      <c r="AA9" s="3" t="s"/>
+      <c r="AB9" s="3" t="s"/>
+      <c r="AC9" s="3" t="s"/>
+      <c r="AD9" s="3" t="s"/>
+      <c r="AE9" s="3" t="s"/>
+      <c r="AF9" s="3" t="s"/>
+      <c r="AG9" s="3" t="s"/>
+      <c r="AH9" s="3" t="s"/>
+      <c r="AI9" s="3" t="s"/>
+      <c r="AJ9" s="3" t="s"/>
+      <c r="AK9" s="3" t="s"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:37">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>0</v>
@@ -777,60 +1294,242 @@
       <c r="K10" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="L10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>0</v>
-      </c>
+    <row r="11" spans="1:37">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s"/>
+      <c r="C11" s="3" t="s"/>
+      <c r="D11" s="3" t="s"/>
+      <c r="E11" s="3" t="s"/>
+      <c r="F11" s="3" t="s"/>
+      <c r="G11" s="3" t="s"/>
+      <c r="H11" s="3" t="s"/>
+      <c r="I11" s="3" t="s"/>
+      <c r="J11" s="3" t="s"/>
+      <c r="K11" s="3" t="s"/>
+      <c r="L11" s="3" t="s"/>
+      <c r="M11" s="3" t="s"/>
+      <c r="N11" s="3" t="s"/>
+      <c r="O11" s="3" t="s"/>
+      <c r="P11" s="3" t="s"/>
+      <c r="Q11" s="3" t="s"/>
+      <c r="R11" s="3" t="s"/>
+      <c r="S11" s="3" t="s"/>
+      <c r="T11" s="3" t="s"/>
+      <c r="U11" s="3" t="s"/>
+      <c r="V11" s="3" t="s"/>
+      <c r="W11" s="3" t="s"/>
+      <c r="X11" s="3" t="s"/>
+      <c r="Y11" s="3" t="s"/>
+      <c r="Z11" s="3" t="s"/>
+      <c r="AA11" s="3" t="s"/>
+      <c r="AB11" s="3" t="s"/>
+      <c r="AC11" s="3" t="s"/>
+      <c r="AD11" s="3" t="s"/>
+      <c r="AE11" s="3" t="s"/>
+      <c r="AF11" s="3" t="s"/>
+      <c r="AG11" s="3" t="s"/>
+      <c r="AH11" s="3" t="s"/>
+      <c r="AI11" s="3" t="s"/>
+      <c r="AJ11" s="3" t="s"/>
+      <c r="AK11" s="3" t="s"/>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s"/>
-      <c r="C12" s="3" t="s"/>
-      <c r="D12" s="3" t="s"/>
-      <c r="E12" s="3" t="s"/>
-      <c r="F12" s="3" t="s"/>
-      <c r="G12" s="3" t="s"/>
-      <c r="H12" s="3" t="s"/>
-      <c r="I12" s="3" t="s"/>
-      <c r="J12" s="3" t="s"/>
-      <c r="K12" s="3" t="s"/>
+    <row r="12" spans="1:37">
+      <c r="A12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:37">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="n">
         <v>0</v>
@@ -862,10 +1561,88 @@
       <c r="K13" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="L13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:37">
       <c r="A14" s="4" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>0</v>
@@ -897,10 +1674,88 @@
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="L14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:37">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>0</v>
@@ -932,10 +1787,88 @@
       <c r="K15" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="L15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:37">
       <c r="A16" s="4" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>0</v>
@@ -967,10 +1900,88 @@
       <c r="K16" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="L16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:37">
       <c r="A17" s="4" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>0</v>
@@ -1002,110 +2013,309 @@
       <c r="K17" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="L17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5" t="n">
+    <row r="18" spans="1:37">
+      <c r="A18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>660000</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6" t="n">
+        <v>660000</v>
+      </c>
+      <c r="M18" s="6" t="n">
+        <v>-396000</v>
+      </c>
+      <c r="N18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6" t="n">
+        <v>3080000</v>
+      </c>
+      <c r="R18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="6" t="n">
+        <v>-462000</v>
+      </c>
+      <c r="Z18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:37">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B19" s="6" t="n">
-        <v>-830000</v>
+        <v>660000</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>-830000</v>
+        <v>660000</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-830000</v>
+        <v>660000</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-830000</v>
+        <v>660000</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-830000</v>
+        <v>660000</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>-830000</v>
+        <v>660000</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-830000</v>
+        <v>660000</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>-830000</v>
+        <v>660000</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-830000</v>
+        <v>660000</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-830000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>-830000</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>-1660000</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>-2490000</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>-3320000</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>-4150000</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>-4980000</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>-5810000</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>-6640000</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>-7470000</v>
-      </c>
-      <c r="K20" s="6" t="n">
-        <v>-8300000</v>
+        <v>660000</v>
+      </c>
+      <c r="L19" s="6" t="n">
+        <v>1320000</v>
+      </c>
+      <c r="M19" s="6" t="n">
+        <v>924000</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>924000</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>924000</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <v>924000</v>
+      </c>
+      <c r="Q19" s="6" t="n">
+        <v>4004000</v>
+      </c>
+      <c r="R19" s="6" t="n">
+        <v>4004000</v>
+      </c>
+      <c r="S19" s="6" t="n">
+        <v>4004000</v>
+      </c>
+      <c r="T19" s="6" t="n">
+        <v>4004000</v>
+      </c>
+      <c r="U19" s="6" t="n">
+        <v>4004000</v>
+      </c>
+      <c r="V19" s="6" t="n">
+        <v>4004000</v>
+      </c>
+      <c r="W19" s="6" t="n">
+        <v>4004000</v>
+      </c>
+      <c r="X19" s="6" t="n">
+        <v>4004000</v>
+      </c>
+      <c r="Y19" s="6" t="n">
+        <v>3542000</v>
+      </c>
+      <c r="Z19" s="6" t="n">
+        <v>3542000</v>
+      </c>
+      <c r="AA19" s="6" t="n">
+        <v>3542000</v>
+      </c>
+      <c r="AB19" s="6" t="n">
+        <v>3542000</v>
+      </c>
+      <c r="AC19" s="6" t="n">
+        <v>3542000</v>
+      </c>
+      <c r="AD19" s="6" t="n">
+        <v>3542000</v>
+      </c>
+      <c r="AE19" s="6" t="n">
+        <v>3542000</v>
+      </c>
+      <c r="AF19" s="6" t="n">
+        <v>3542000</v>
+      </c>
+      <c r="AG19" s="6" t="n">
+        <v>3542000</v>
+      </c>
+      <c r="AH19" s="6" t="n">
+        <v>3542000</v>
+      </c>
+      <c r="AI19" s="6" t="n">
+        <v>3542000</v>
+      </c>
+      <c r="AJ19" s="6" t="n">
+        <v>3542000</v>
+      </c>
+      <c r="AK19" s="6" t="n">
+        <v>3542000</v>
       </c>
     </row>
   </sheetData>

--- a/module classe projet/ModulePrincipal/tft.xlsx
+++ b/module classe projet/ModulePrincipal/tft.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
-  <si>
-    <t>TFT Projet Ecole</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+  <si>
+    <t>TFT Projet Projet Immobilier</t>
   </si>
   <si>
     <t>M1</t>
@@ -50,6 +50,336 @@
     <t>M10</t>
   </si>
   <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>M17</t>
+  </si>
+  <si>
+    <t>M18</t>
+  </si>
+  <si>
+    <t>M19</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>M21</t>
+  </si>
+  <si>
+    <t>M22</t>
+  </si>
+  <si>
+    <t>M23</t>
+  </si>
+  <si>
+    <t>M24</t>
+  </si>
+  <si>
+    <t>M25</t>
+  </si>
+  <si>
+    <t>M26</t>
+  </si>
+  <si>
+    <t>M27</t>
+  </si>
+  <si>
+    <t>M28</t>
+  </si>
+  <si>
+    <t>M29</t>
+  </si>
+  <si>
+    <t>M30</t>
+  </si>
+  <si>
+    <t>M31</t>
+  </si>
+  <si>
+    <t>M32</t>
+  </si>
+  <si>
+    <t>M33</t>
+  </si>
+  <si>
+    <t>M34</t>
+  </si>
+  <si>
+    <t>M35</t>
+  </si>
+  <si>
+    <t>M36</t>
+  </si>
+  <si>
+    <t>M37</t>
+  </si>
+  <si>
+    <t>M38</t>
+  </si>
+  <si>
+    <t>M39</t>
+  </si>
+  <si>
+    <t>M40</t>
+  </si>
+  <si>
+    <t>M41</t>
+  </si>
+  <si>
+    <t>M42</t>
+  </si>
+  <si>
+    <t>M43</t>
+  </si>
+  <si>
+    <t>M44</t>
+  </si>
+  <si>
+    <t>M45</t>
+  </si>
+  <si>
+    <t>M46</t>
+  </si>
+  <si>
+    <t>M47</t>
+  </si>
+  <si>
+    <t>M48</t>
+  </si>
+  <si>
+    <t>M49</t>
+  </si>
+  <si>
+    <t>M50</t>
+  </si>
+  <si>
+    <t>M51</t>
+  </si>
+  <si>
+    <t>M52</t>
+  </si>
+  <si>
+    <t>M53</t>
+  </si>
+  <si>
+    <t>M54</t>
+  </si>
+  <si>
+    <t>M55</t>
+  </si>
+  <si>
+    <t>M56</t>
+  </si>
+  <si>
+    <t>M57</t>
+  </si>
+  <si>
+    <t>M58</t>
+  </si>
+  <si>
+    <t>M59</t>
+  </si>
+  <si>
+    <t>M60</t>
+  </si>
+  <si>
+    <t>M61</t>
+  </si>
+  <si>
+    <t>M62</t>
+  </si>
+  <si>
+    <t>M63</t>
+  </si>
+  <si>
+    <t>M64</t>
+  </si>
+  <si>
+    <t>M65</t>
+  </si>
+  <si>
+    <t>M66</t>
+  </si>
+  <si>
+    <t>M67</t>
+  </si>
+  <si>
+    <t>M68</t>
+  </si>
+  <si>
+    <t>M69</t>
+  </si>
+  <si>
+    <t>M70</t>
+  </si>
+  <si>
+    <t>M71</t>
+  </si>
+  <si>
+    <t>M72</t>
+  </si>
+  <si>
+    <t>M73</t>
+  </si>
+  <si>
+    <t>M74</t>
+  </si>
+  <si>
+    <t>M75</t>
+  </si>
+  <si>
+    <t>M76</t>
+  </si>
+  <si>
+    <t>M77</t>
+  </si>
+  <si>
+    <t>M78</t>
+  </si>
+  <si>
+    <t>M79</t>
+  </si>
+  <si>
+    <t>M80</t>
+  </si>
+  <si>
+    <t>M81</t>
+  </si>
+  <si>
+    <t>M82</t>
+  </si>
+  <si>
+    <t>M83</t>
+  </si>
+  <si>
+    <t>M84</t>
+  </si>
+  <si>
+    <t>M85</t>
+  </si>
+  <si>
+    <t>M86</t>
+  </si>
+  <si>
+    <t>M87</t>
+  </si>
+  <si>
+    <t>M88</t>
+  </si>
+  <si>
+    <t>M89</t>
+  </si>
+  <si>
+    <t>M90</t>
+  </si>
+  <si>
+    <t>M91</t>
+  </si>
+  <si>
+    <t>M92</t>
+  </si>
+  <si>
+    <t>M93</t>
+  </si>
+  <si>
+    <t>M94</t>
+  </si>
+  <si>
+    <t>M95</t>
+  </si>
+  <si>
+    <t>M96</t>
+  </si>
+  <si>
+    <t>M97</t>
+  </si>
+  <si>
+    <t>M98</t>
+  </si>
+  <si>
+    <t>M99</t>
+  </si>
+  <si>
+    <t>M100</t>
+  </si>
+  <si>
+    <t>M101</t>
+  </si>
+  <si>
+    <t>M102</t>
+  </si>
+  <si>
+    <t>M103</t>
+  </si>
+  <si>
+    <t>M104</t>
+  </si>
+  <si>
+    <t>M105</t>
+  </si>
+  <si>
+    <t>M106</t>
+  </si>
+  <si>
+    <t>M107</t>
+  </si>
+  <si>
+    <t>M108</t>
+  </si>
+  <si>
+    <t>M109</t>
+  </si>
+  <si>
+    <t>M110</t>
+  </si>
+  <si>
+    <t>M111</t>
+  </si>
+  <si>
+    <t>M112</t>
+  </si>
+  <si>
+    <t>M113</t>
+  </si>
+  <si>
+    <t>M114</t>
+  </si>
+  <si>
+    <t>M115</t>
+  </si>
+  <si>
+    <t>M116</t>
+  </si>
+  <si>
+    <t>M117</t>
+  </si>
+  <si>
+    <t>M118</t>
+  </si>
+  <si>
+    <t>M119</t>
+  </si>
+  <si>
+    <t>M120</t>
+  </si>
+  <si>
     <t>Flux du Projet</t>
   </si>
   <si>
@@ -69,6 +399,9 @@
   </si>
   <si>
     <t>Achat de terrain</t>
+  </si>
+  <si>
+    <t>Cout de construction de biens immobilier</t>
   </si>
   <si>
     <t>Flux de financement</t>
@@ -525,7 +858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:DQ20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,12 +866,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:121">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:121">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -569,10 +902,340 @@
       <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ3" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:121">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3" t="s"/>
       <c r="C4" s="3" t="s"/>
@@ -584,45 +1247,485 @@
       <c r="I4" s="3" t="s"/>
       <c r="J4" s="3" t="s"/>
       <c r="K4" s="3" t="s"/>
+      <c r="L4" s="3" t="s"/>
+      <c r="M4" s="3" t="s"/>
+      <c r="N4" s="3" t="s"/>
+      <c r="O4" s="3" t="s"/>
+      <c r="P4" s="3" t="s"/>
+      <c r="Q4" s="3" t="s"/>
+      <c r="R4" s="3" t="s"/>
+      <c r="S4" s="3" t="s"/>
+      <c r="T4" s="3" t="s"/>
+      <c r="U4" s="3" t="s"/>
+      <c r="V4" s="3" t="s"/>
+      <c r="W4" s="3" t="s"/>
+      <c r="X4" s="3" t="s"/>
+      <c r="Y4" s="3" t="s"/>
+      <c r="Z4" s="3" t="s"/>
+      <c r="AA4" s="3" t="s"/>
+      <c r="AB4" s="3" t="s"/>
+      <c r="AC4" s="3" t="s"/>
+      <c r="AD4" s="3" t="s"/>
+      <c r="AE4" s="3" t="s"/>
+      <c r="AF4" s="3" t="s"/>
+      <c r="AG4" s="3" t="s"/>
+      <c r="AH4" s="3" t="s"/>
+      <c r="AI4" s="3" t="s"/>
+      <c r="AJ4" s="3" t="s"/>
+      <c r="AK4" s="3" t="s"/>
+      <c r="AL4" s="3" t="s"/>
+      <c r="AM4" s="3" t="s"/>
+      <c r="AN4" s="3" t="s"/>
+      <c r="AO4" s="3" t="s"/>
+      <c r="AP4" s="3" t="s"/>
+      <c r="AQ4" s="3" t="s"/>
+      <c r="AR4" s="3" t="s"/>
+      <c r="AS4" s="3" t="s"/>
+      <c r="AT4" s="3" t="s"/>
+      <c r="AU4" s="3" t="s"/>
+      <c r="AV4" s="3" t="s"/>
+      <c r="AW4" s="3" t="s"/>
+      <c r="AX4" s="3" t="s"/>
+      <c r="AY4" s="3" t="s"/>
+      <c r="AZ4" s="3" t="s"/>
+      <c r="BA4" s="3" t="s"/>
+      <c r="BB4" s="3" t="s"/>
+      <c r="BC4" s="3" t="s"/>
+      <c r="BD4" s="3" t="s"/>
+      <c r="BE4" s="3" t="s"/>
+      <c r="BF4" s="3" t="s"/>
+      <c r="BG4" s="3" t="s"/>
+      <c r="BH4" s="3" t="s"/>
+      <c r="BI4" s="3" t="s"/>
+      <c r="BJ4" s="3" t="s"/>
+      <c r="BK4" s="3" t="s"/>
+      <c r="BL4" s="3" t="s"/>
+      <c r="BM4" s="3" t="s"/>
+      <c r="BN4" s="3" t="s"/>
+      <c r="BO4" s="3" t="s"/>
+      <c r="BP4" s="3" t="s"/>
+      <c r="BQ4" s="3" t="s"/>
+      <c r="BR4" s="3" t="s"/>
+      <c r="BS4" s="3" t="s"/>
+      <c r="BT4" s="3" t="s"/>
+      <c r="BU4" s="3" t="s"/>
+      <c r="BV4" s="3" t="s"/>
+      <c r="BW4" s="3" t="s"/>
+      <c r="BX4" s="3" t="s"/>
+      <c r="BY4" s="3" t="s"/>
+      <c r="BZ4" s="3" t="s"/>
+      <c r="CA4" s="3" t="s"/>
+      <c r="CB4" s="3" t="s"/>
+      <c r="CC4" s="3" t="s"/>
+      <c r="CD4" s="3" t="s"/>
+      <c r="CE4" s="3" t="s"/>
+      <c r="CF4" s="3" t="s"/>
+      <c r="CG4" s="3" t="s"/>
+      <c r="CH4" s="3" t="s"/>
+      <c r="CI4" s="3" t="s"/>
+      <c r="CJ4" s="3" t="s"/>
+      <c r="CK4" s="3" t="s"/>
+      <c r="CL4" s="3" t="s"/>
+      <c r="CM4" s="3" t="s"/>
+      <c r="CN4" s="3" t="s"/>
+      <c r="CO4" s="3" t="s"/>
+      <c r="CP4" s="3" t="s"/>
+      <c r="CQ4" s="3" t="s"/>
+      <c r="CR4" s="3" t="s"/>
+      <c r="CS4" s="3" t="s"/>
+      <c r="CT4" s="3" t="s"/>
+      <c r="CU4" s="3" t="s"/>
+      <c r="CV4" s="3" t="s"/>
+      <c r="CW4" s="3" t="s"/>
+      <c r="CX4" s="3" t="s"/>
+      <c r="CY4" s="3" t="s"/>
+      <c r="CZ4" s="3" t="s"/>
+      <c r="DA4" s="3" t="s"/>
+      <c r="DB4" s="3" t="s"/>
+      <c r="DC4" s="3" t="s"/>
+      <c r="DD4" s="3" t="s"/>
+      <c r="DE4" s="3" t="s"/>
+      <c r="DF4" s="3" t="s"/>
+      <c r="DG4" s="3" t="s"/>
+      <c r="DH4" s="3" t="s"/>
+      <c r="DI4" s="3" t="s"/>
+      <c r="DJ4" s="3" t="s"/>
+      <c r="DK4" s="3" t="s"/>
+      <c r="DL4" s="3" t="s"/>
+      <c r="DM4" s="3" t="s"/>
+      <c r="DN4" s="3" t="s"/>
+      <c r="DO4" s="3" t="s"/>
+      <c r="DP4" s="3" t="s"/>
+      <c r="DQ4" s="3" t="s"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:121">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0</v>
+        <v>399000</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="Y5" s="5" t="n">
+        <v>37199000</v>
+      </c>
+      <c r="Z5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AB5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AE5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AF5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AG5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AH5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AI5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AJ5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AK5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AL5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AM5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AN5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AO5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AP5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AQ5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AR5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AS5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AT5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AU5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AV5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AW5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AX5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AY5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AZ5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BA5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BB5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BC5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BD5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BE5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BF5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BG5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BH5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BI5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BJ5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BK5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BL5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BM5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BN5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BO5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BP5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BQ5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BR5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BS5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BT5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BU5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BV5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BW5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BX5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BY5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BZ5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CA5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CB5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CC5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CD5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CE5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CF5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CG5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CH5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CI5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CJ5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CK5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CL5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CM5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CN5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CO5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CP5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CQ5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CR5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CS5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CT5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CU5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CV5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CW5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CX5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CY5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CZ5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DA5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DB5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DC5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DD5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DE5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DF5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DG5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DH5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DI5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DJ5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DK5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DL5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DM5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DN5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DO5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DP5" s="5" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DQ5" s="5" t="n">
+        <v>399000</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:121">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>0</v>
@@ -654,10 +1757,340 @@
       <c r="K6" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="L6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>1436400</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>12892280</v>
+      </c>
+      <c r="Z6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="5" t="n">
+        <v>1436400</v>
+      </c>
+      <c r="AL6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="5" t="n">
+        <v>1436400</v>
+      </c>
+      <c r="AX6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="5" t="n">
+        <v>1436400</v>
+      </c>
+      <c r="BJ6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="5" t="n">
+        <v>1436400</v>
+      </c>
+      <c r="BV6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="5" t="n">
+        <v>1436400</v>
+      </c>
+      <c r="CH6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="5" t="n">
+        <v>1436400</v>
+      </c>
+      <c r="CT6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE6" s="5" t="n">
+        <v>1436400</v>
+      </c>
+      <c r="DF6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ6" s="5" t="n">
+        <v>1436400</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:121">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>0</v>
@@ -689,10 +2122,340 @@
       <c r="K7" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="L7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ7" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:121">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>0</v>
@@ -724,10 +2487,340 @@
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="L8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ8" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:121">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="B9" s="3" t="s"/>
       <c r="C9" s="3" t="s"/>
@@ -739,13 +2832,123 @@
       <c r="I9" s="3" t="s"/>
       <c r="J9" s="3" t="s"/>
       <c r="K9" s="3" t="s"/>
+      <c r="L9" s="3" t="s"/>
+      <c r="M9" s="3" t="s"/>
+      <c r="N9" s="3" t="s"/>
+      <c r="O9" s="3" t="s"/>
+      <c r="P9" s="3" t="s"/>
+      <c r="Q9" s="3" t="s"/>
+      <c r="R9" s="3" t="s"/>
+      <c r="S9" s="3" t="s"/>
+      <c r="T9" s="3" t="s"/>
+      <c r="U9" s="3" t="s"/>
+      <c r="V9" s="3" t="s"/>
+      <c r="W9" s="3" t="s"/>
+      <c r="X9" s="3" t="s"/>
+      <c r="Y9" s="3" t="s"/>
+      <c r="Z9" s="3" t="s"/>
+      <c r="AA9" s="3" t="s"/>
+      <c r="AB9" s="3" t="s"/>
+      <c r="AC9" s="3" t="s"/>
+      <c r="AD9" s="3" t="s"/>
+      <c r="AE9" s="3" t="s"/>
+      <c r="AF9" s="3" t="s"/>
+      <c r="AG9" s="3" t="s"/>
+      <c r="AH9" s="3" t="s"/>
+      <c r="AI9" s="3" t="s"/>
+      <c r="AJ9" s="3" t="s"/>
+      <c r="AK9" s="3" t="s"/>
+      <c r="AL9" s="3" t="s"/>
+      <c r="AM9" s="3" t="s"/>
+      <c r="AN9" s="3" t="s"/>
+      <c r="AO9" s="3" t="s"/>
+      <c r="AP9" s="3" t="s"/>
+      <c r="AQ9" s="3" t="s"/>
+      <c r="AR9" s="3" t="s"/>
+      <c r="AS9" s="3" t="s"/>
+      <c r="AT9" s="3" t="s"/>
+      <c r="AU9" s="3" t="s"/>
+      <c r="AV9" s="3" t="s"/>
+      <c r="AW9" s="3" t="s"/>
+      <c r="AX9" s="3" t="s"/>
+      <c r="AY9" s="3" t="s"/>
+      <c r="AZ9" s="3" t="s"/>
+      <c r="BA9" s="3" t="s"/>
+      <c r="BB9" s="3" t="s"/>
+      <c r="BC9" s="3" t="s"/>
+      <c r="BD9" s="3" t="s"/>
+      <c r="BE9" s="3" t="s"/>
+      <c r="BF9" s="3" t="s"/>
+      <c r="BG9" s="3" t="s"/>
+      <c r="BH9" s="3" t="s"/>
+      <c r="BI9" s="3" t="s"/>
+      <c r="BJ9" s="3" t="s"/>
+      <c r="BK9" s="3" t="s"/>
+      <c r="BL9" s="3" t="s"/>
+      <c r="BM9" s="3" t="s"/>
+      <c r="BN9" s="3" t="s"/>
+      <c r="BO9" s="3" t="s"/>
+      <c r="BP9" s="3" t="s"/>
+      <c r="BQ9" s="3" t="s"/>
+      <c r="BR9" s="3" t="s"/>
+      <c r="BS9" s="3" t="s"/>
+      <c r="BT9" s="3" t="s"/>
+      <c r="BU9" s="3" t="s"/>
+      <c r="BV9" s="3" t="s"/>
+      <c r="BW9" s="3" t="s"/>
+      <c r="BX9" s="3" t="s"/>
+      <c r="BY9" s="3" t="s"/>
+      <c r="BZ9" s="3" t="s"/>
+      <c r="CA9" s="3" t="s"/>
+      <c r="CB9" s="3" t="s"/>
+      <c r="CC9" s="3" t="s"/>
+      <c r="CD9" s="3" t="s"/>
+      <c r="CE9" s="3" t="s"/>
+      <c r="CF9" s="3" t="s"/>
+      <c r="CG9" s="3" t="s"/>
+      <c r="CH9" s="3" t="s"/>
+      <c r="CI9" s="3" t="s"/>
+      <c r="CJ9" s="3" t="s"/>
+      <c r="CK9" s="3" t="s"/>
+      <c r="CL9" s="3" t="s"/>
+      <c r="CM9" s="3" t="s"/>
+      <c r="CN9" s="3" t="s"/>
+      <c r="CO9" s="3" t="s"/>
+      <c r="CP9" s="3" t="s"/>
+      <c r="CQ9" s="3" t="s"/>
+      <c r="CR9" s="3" t="s"/>
+      <c r="CS9" s="3" t="s"/>
+      <c r="CT9" s="3" t="s"/>
+      <c r="CU9" s="3" t="s"/>
+      <c r="CV9" s="3" t="s"/>
+      <c r="CW9" s="3" t="s"/>
+      <c r="CX9" s="3" t="s"/>
+      <c r="CY9" s="3" t="s"/>
+      <c r="CZ9" s="3" t="s"/>
+      <c r="DA9" s="3" t="s"/>
+      <c r="DB9" s="3" t="s"/>
+      <c r="DC9" s="3" t="s"/>
+      <c r="DD9" s="3" t="s"/>
+      <c r="DE9" s="3" t="s"/>
+      <c r="DF9" s="3" t="s"/>
+      <c r="DG9" s="3" t="s"/>
+      <c r="DH9" s="3" t="s"/>
+      <c r="DI9" s="3" t="s"/>
+      <c r="DJ9" s="3" t="s"/>
+      <c r="DK9" s="3" t="s"/>
+      <c r="DL9" s="3" t="s"/>
+      <c r="DM9" s="3" t="s"/>
+      <c r="DN9" s="3" t="s"/>
+      <c r="DO9" s="3" t="s"/>
+      <c r="DP9" s="3" t="s"/>
+      <c r="DQ9" s="3" t="s"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:121">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>0</v>
@@ -774,63 +2977,833 @@
       <c r="K10" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="L10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ10" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s"/>
-      <c r="C11" s="3" t="s"/>
-      <c r="D11" s="3" t="s"/>
-      <c r="E11" s="3" t="s"/>
-      <c r="F11" s="3" t="s"/>
-      <c r="G11" s="3" t="s"/>
-      <c r="H11" s="3" t="s"/>
-      <c r="I11" s="3" t="s"/>
-      <c r="J11" s="3" t="s"/>
-      <c r="K11" s="3" t="s"/>
+    <row r="11" spans="1:121">
+      <c r="A11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ11" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>0</v>
-      </c>
+    <row r="12" spans="1:121">
+      <c r="A12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="3" t="s"/>
+      <c r="C12" s="3" t="s"/>
+      <c r="D12" s="3" t="s"/>
+      <c r="E12" s="3" t="s"/>
+      <c r="F12" s="3" t="s"/>
+      <c r="G12" s="3" t="s"/>
+      <c r="H12" s="3" t="s"/>
+      <c r="I12" s="3" t="s"/>
+      <c r="J12" s="3" t="s"/>
+      <c r="K12" s="3" t="s"/>
+      <c r="L12" s="3" t="s"/>
+      <c r="M12" s="3" t="s"/>
+      <c r="N12" s="3" t="s"/>
+      <c r="O12" s="3" t="s"/>
+      <c r="P12" s="3" t="s"/>
+      <c r="Q12" s="3" t="s"/>
+      <c r="R12" s="3" t="s"/>
+      <c r="S12" s="3" t="s"/>
+      <c r="T12" s="3" t="s"/>
+      <c r="U12" s="3" t="s"/>
+      <c r="V12" s="3" t="s"/>
+      <c r="W12" s="3" t="s"/>
+      <c r="X12" s="3" t="s"/>
+      <c r="Y12" s="3" t="s"/>
+      <c r="Z12" s="3" t="s"/>
+      <c r="AA12" s="3" t="s"/>
+      <c r="AB12" s="3" t="s"/>
+      <c r="AC12" s="3" t="s"/>
+      <c r="AD12" s="3" t="s"/>
+      <c r="AE12" s="3" t="s"/>
+      <c r="AF12" s="3" t="s"/>
+      <c r="AG12" s="3" t="s"/>
+      <c r="AH12" s="3" t="s"/>
+      <c r="AI12" s="3" t="s"/>
+      <c r="AJ12" s="3" t="s"/>
+      <c r="AK12" s="3" t="s"/>
+      <c r="AL12" s="3" t="s"/>
+      <c r="AM12" s="3" t="s"/>
+      <c r="AN12" s="3" t="s"/>
+      <c r="AO12" s="3" t="s"/>
+      <c r="AP12" s="3" t="s"/>
+      <c r="AQ12" s="3" t="s"/>
+      <c r="AR12" s="3" t="s"/>
+      <c r="AS12" s="3" t="s"/>
+      <c r="AT12" s="3" t="s"/>
+      <c r="AU12" s="3" t="s"/>
+      <c r="AV12" s="3" t="s"/>
+      <c r="AW12" s="3" t="s"/>
+      <c r="AX12" s="3" t="s"/>
+      <c r="AY12" s="3" t="s"/>
+      <c r="AZ12" s="3" t="s"/>
+      <c r="BA12" s="3" t="s"/>
+      <c r="BB12" s="3" t="s"/>
+      <c r="BC12" s="3" t="s"/>
+      <c r="BD12" s="3" t="s"/>
+      <c r="BE12" s="3" t="s"/>
+      <c r="BF12" s="3" t="s"/>
+      <c r="BG12" s="3" t="s"/>
+      <c r="BH12" s="3" t="s"/>
+      <c r="BI12" s="3" t="s"/>
+      <c r="BJ12" s="3" t="s"/>
+      <c r="BK12" s="3" t="s"/>
+      <c r="BL12" s="3" t="s"/>
+      <c r="BM12" s="3" t="s"/>
+      <c r="BN12" s="3" t="s"/>
+      <c r="BO12" s="3" t="s"/>
+      <c r="BP12" s="3" t="s"/>
+      <c r="BQ12" s="3" t="s"/>
+      <c r="BR12" s="3" t="s"/>
+      <c r="BS12" s="3" t="s"/>
+      <c r="BT12" s="3" t="s"/>
+      <c r="BU12" s="3" t="s"/>
+      <c r="BV12" s="3" t="s"/>
+      <c r="BW12" s="3" t="s"/>
+      <c r="BX12" s="3" t="s"/>
+      <c r="BY12" s="3" t="s"/>
+      <c r="BZ12" s="3" t="s"/>
+      <c r="CA12" s="3" t="s"/>
+      <c r="CB12" s="3" t="s"/>
+      <c r="CC12" s="3" t="s"/>
+      <c r="CD12" s="3" t="s"/>
+      <c r="CE12" s="3" t="s"/>
+      <c r="CF12" s="3" t="s"/>
+      <c r="CG12" s="3" t="s"/>
+      <c r="CH12" s="3" t="s"/>
+      <c r="CI12" s="3" t="s"/>
+      <c r="CJ12" s="3" t="s"/>
+      <c r="CK12" s="3" t="s"/>
+      <c r="CL12" s="3" t="s"/>
+      <c r="CM12" s="3" t="s"/>
+      <c r="CN12" s="3" t="s"/>
+      <c r="CO12" s="3" t="s"/>
+      <c r="CP12" s="3" t="s"/>
+      <c r="CQ12" s="3" t="s"/>
+      <c r="CR12" s="3" t="s"/>
+      <c r="CS12" s="3" t="s"/>
+      <c r="CT12" s="3" t="s"/>
+      <c r="CU12" s="3" t="s"/>
+      <c r="CV12" s="3" t="s"/>
+      <c r="CW12" s="3" t="s"/>
+      <c r="CX12" s="3" t="s"/>
+      <c r="CY12" s="3" t="s"/>
+      <c r="CZ12" s="3" t="s"/>
+      <c r="DA12" s="3" t="s"/>
+      <c r="DB12" s="3" t="s"/>
+      <c r="DC12" s="3" t="s"/>
+      <c r="DD12" s="3" t="s"/>
+      <c r="DE12" s="3" t="s"/>
+      <c r="DF12" s="3" t="s"/>
+      <c r="DG12" s="3" t="s"/>
+      <c r="DH12" s="3" t="s"/>
+      <c r="DI12" s="3" t="s"/>
+      <c r="DJ12" s="3" t="s"/>
+      <c r="DK12" s="3" t="s"/>
+      <c r="DL12" s="3" t="s"/>
+      <c r="DM12" s="3" t="s"/>
+      <c r="DN12" s="3" t="s"/>
+      <c r="DO12" s="3" t="s"/>
+      <c r="DP12" s="3" t="s"/>
+      <c r="DQ12" s="3" t="s"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:121">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>0</v>
@@ -859,13 +3832,343 @@
       <c r="K13" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="L13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ13" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:121">
       <c r="A14" s="4" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>0</v>
@@ -894,10 +4197,340 @@
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="L14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ14" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:121">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>0</v>
@@ -929,10 +4562,340 @@
       <c r="K15" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="L15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ15" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:121">
       <c r="A16" s="4" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>0</v>
@@ -964,10 +4927,340 @@
       <c r="K16" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="L16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ16" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:121">
       <c r="A17" s="4" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>0</v>
@@ -999,75 +5292,1430 @@
       <c r="K17" s="5" t="n">
         <v>0</v>
       </c>
+      <c r="L17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ17" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6" t="n">
+    <row r="18" spans="1:121">
+      <c r="A18" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ18" s="5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:121">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="B19" s="6" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0</v>
+        <v>399000</v>
+      </c>
+      <c r="L19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="M19" s="6" t="n">
+        <v>-1037400</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="Q19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="R19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="S19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="T19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="U19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="V19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="W19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="X19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="Y19" s="6" t="n">
+        <v>24306720</v>
+      </c>
+      <c r="Z19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AA19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AB19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AC19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AD19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AE19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AF19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AG19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AH19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AI19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AJ19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AK19" s="6" t="n">
+        <v>-1037400</v>
+      </c>
+      <c r="AL19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AM19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AN19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AO19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AP19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AQ19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AR19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AS19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AT19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AU19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AV19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AW19" s="6" t="n">
+        <v>-1037400</v>
+      </c>
+      <c r="AX19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AY19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="AZ19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BA19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BB19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BC19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BD19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BE19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BF19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BG19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BH19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BI19" s="6" t="n">
+        <v>-1037400</v>
+      </c>
+      <c r="BJ19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BK19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BL19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BM19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BN19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BO19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BP19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BQ19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BR19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BS19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BT19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BU19" s="6" t="n">
+        <v>-1037400</v>
+      </c>
+      <c r="BV19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BW19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BX19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BY19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="BZ19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CA19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CB19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CC19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CD19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CE19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CF19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CG19" s="6" t="n">
+        <v>-1037400</v>
+      </c>
+      <c r="CH19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CI19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CJ19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CK19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CL19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CM19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CN19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CO19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CP19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CQ19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CR19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CS19" s="6" t="n">
+        <v>-1037400</v>
+      </c>
+      <c r="CT19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CU19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CV19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CW19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CX19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CY19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="CZ19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DA19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DB19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DC19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DD19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DE19" s="6" t="n">
+        <v>-1037400</v>
+      </c>
+      <c r="DF19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DG19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DH19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DI19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DJ19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DK19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DL19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DM19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DN19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DO19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DP19" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="DQ19" s="6" t="n">
+        <v>-1037400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:121">
+      <c r="A20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>399000</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>798000</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>1197000</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>1596000</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>1995000</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>2394000</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>2793000</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>3192000</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>3591000</v>
+      </c>
+      <c r="K20" s="6" t="n">
+        <v>3990000</v>
+      </c>
+      <c r="L20" s="6" t="n">
+        <v>4389000</v>
+      </c>
+      <c r="M20" s="6" t="n">
+        <v>3351600</v>
+      </c>
+      <c r="N20" s="6" t="n">
+        <v>3750600</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>4149600</v>
+      </c>
+      <c r="P20" s="6" t="n">
+        <v>4548600</v>
+      </c>
+      <c r="Q20" s="6" t="n">
+        <v>4947600</v>
+      </c>
+      <c r="R20" s="6" t="n">
+        <v>5346600</v>
+      </c>
+      <c r="S20" s="6" t="n">
+        <v>5745600</v>
+      </c>
+      <c r="T20" s="6" t="n">
+        <v>6144600</v>
+      </c>
+      <c r="U20" s="6" t="n">
+        <v>6543600</v>
+      </c>
+      <c r="V20" s="6" t="n">
+        <v>6942600</v>
+      </c>
+      <c r="W20" s="6" t="n">
+        <v>7341600</v>
+      </c>
+      <c r="X20" s="6" t="n">
+        <v>7740600</v>
+      </c>
+      <c r="Y20" s="6" t="n">
+        <v>32047320</v>
+      </c>
+      <c r="Z20" s="6" t="n">
+        <v>32446320</v>
+      </c>
+      <c r="AA20" s="6" t="n">
+        <v>32845320</v>
+      </c>
+      <c r="AB20" s="6" t="n">
+        <v>33244320</v>
+      </c>
+      <c r="AC20" s="6" t="n">
+        <v>33643320</v>
+      </c>
+      <c r="AD20" s="6" t="n">
+        <v>34042320</v>
+      </c>
+      <c r="AE20" s="6" t="n">
+        <v>34441320</v>
+      </c>
+      <c r="AF20" s="6" t="n">
+        <v>34840320</v>
+      </c>
+      <c r="AG20" s="6" t="n">
+        <v>35239320</v>
+      </c>
+      <c r="AH20" s="6" t="n">
+        <v>35638320</v>
+      </c>
+      <c r="AI20" s="6" t="n">
+        <v>36037320</v>
+      </c>
+      <c r="AJ20" s="6" t="n">
+        <v>36436320</v>
+      </c>
+      <c r="AK20" s="6" t="n">
+        <v>35398920</v>
+      </c>
+      <c r="AL20" s="6" t="n">
+        <v>35797920</v>
+      </c>
+      <c r="AM20" s="6" t="n">
+        <v>36196920</v>
+      </c>
+      <c r="AN20" s="6" t="n">
+        <v>36595920</v>
+      </c>
+      <c r="AO20" s="6" t="n">
+        <v>36994920</v>
+      </c>
+      <c r="AP20" s="6" t="n">
+        <v>37393920</v>
+      </c>
+      <c r="AQ20" s="6" t="n">
+        <v>37792920</v>
+      </c>
+      <c r="AR20" s="6" t="n">
+        <v>38191920</v>
+      </c>
+      <c r="AS20" s="6" t="n">
+        <v>38590920</v>
+      </c>
+      <c r="AT20" s="6" t="n">
+        <v>38989920</v>
+      </c>
+      <c r="AU20" s="6" t="n">
+        <v>39388920</v>
+      </c>
+      <c r="AV20" s="6" t="n">
+        <v>39787920</v>
+      </c>
+      <c r="AW20" s="6" t="n">
+        <v>38750520</v>
+      </c>
+      <c r="AX20" s="6" t="n">
+        <v>39149520</v>
+      </c>
+      <c r="AY20" s="6" t="n">
+        <v>39548520</v>
+      </c>
+      <c r="AZ20" s="6" t="n">
+        <v>39947520</v>
+      </c>
+      <c r="BA20" s="6" t="n">
+        <v>40346520</v>
+      </c>
+      <c r="BB20" s="6" t="n">
+        <v>40745520</v>
+      </c>
+      <c r="BC20" s="6" t="n">
+        <v>41144520</v>
+      </c>
+      <c r="BD20" s="6" t="n">
+        <v>41543520</v>
+      </c>
+      <c r="BE20" s="6" t="n">
+        <v>41942520</v>
+      </c>
+      <c r="BF20" s="6" t="n">
+        <v>42341520</v>
+      </c>
+      <c r="BG20" s="6" t="n">
+        <v>42740520</v>
+      </c>
+      <c r="BH20" s="6" t="n">
+        <v>43139520</v>
+      </c>
+      <c r="BI20" s="6" t="n">
+        <v>42102120</v>
+      </c>
+      <c r="BJ20" s="6" t="n">
+        <v>42501120</v>
+      </c>
+      <c r="BK20" s="6" t="n">
+        <v>42900120</v>
+      </c>
+      <c r="BL20" s="6" t="n">
+        <v>43299120</v>
+      </c>
+      <c r="BM20" s="6" t="n">
+        <v>43698120</v>
+      </c>
+      <c r="BN20" s="6" t="n">
+        <v>44097120</v>
+      </c>
+      <c r="BO20" s="6" t="n">
+        <v>44496120</v>
+      </c>
+      <c r="BP20" s="6" t="n">
+        <v>44895120</v>
+      </c>
+      <c r="BQ20" s="6" t="n">
+        <v>45294120</v>
+      </c>
+      <c r="BR20" s="6" t="n">
+        <v>45693120</v>
+      </c>
+      <c r="BS20" s="6" t="n">
+        <v>46092120</v>
+      </c>
+      <c r="BT20" s="6" t="n">
+        <v>46491120</v>
+      </c>
+      <c r="BU20" s="6" t="n">
+        <v>45453720</v>
+      </c>
+      <c r="BV20" s="6" t="n">
+        <v>45852720</v>
+      </c>
+      <c r="BW20" s="6" t="n">
+        <v>46251720</v>
+      </c>
+      <c r="BX20" s="6" t="n">
+        <v>46650720</v>
+      </c>
+      <c r="BY20" s="6" t="n">
+        <v>47049720</v>
+      </c>
+      <c r="BZ20" s="6" t="n">
+        <v>47448720</v>
+      </c>
+      <c r="CA20" s="6" t="n">
+        <v>47847720</v>
+      </c>
+      <c r="CB20" s="6" t="n">
+        <v>48246720</v>
+      </c>
+      <c r="CC20" s="6" t="n">
+        <v>48645720</v>
+      </c>
+      <c r="CD20" s="6" t="n">
+        <v>49044720</v>
+      </c>
+      <c r="CE20" s="6" t="n">
+        <v>49443720</v>
+      </c>
+      <c r="CF20" s="6" t="n">
+        <v>49842720</v>
+      </c>
+      <c r="CG20" s="6" t="n">
+        <v>48805320</v>
+      </c>
+      <c r="CH20" s="6" t="n">
+        <v>49204320</v>
+      </c>
+      <c r="CI20" s="6" t="n">
+        <v>49603320</v>
+      </c>
+      <c r="CJ20" s="6" t="n">
+        <v>50002320</v>
+      </c>
+      <c r="CK20" s="6" t="n">
+        <v>50401320</v>
+      </c>
+      <c r="CL20" s="6" t="n">
+        <v>50800320</v>
+      </c>
+      <c r="CM20" s="6" t="n">
+        <v>51199320</v>
+      </c>
+      <c r="CN20" s="6" t="n">
+        <v>51598320</v>
+      </c>
+      <c r="CO20" s="6" t="n">
+        <v>51997320</v>
+      </c>
+      <c r="CP20" s="6" t="n">
+        <v>52396320</v>
+      </c>
+      <c r="CQ20" s="6" t="n">
+        <v>52795320</v>
+      </c>
+      <c r="CR20" s="6" t="n">
+        <v>53194320</v>
+      </c>
+      <c r="CS20" s="6" t="n">
+        <v>52156920</v>
+      </c>
+      <c r="CT20" s="6" t="n">
+        <v>52555920</v>
+      </c>
+      <c r="CU20" s="6" t="n">
+        <v>52954920</v>
+      </c>
+      <c r="CV20" s="6" t="n">
+        <v>53353920</v>
+      </c>
+      <c r="CW20" s="6" t="n">
+        <v>53752920</v>
+      </c>
+      <c r="CX20" s="6" t="n">
+        <v>54151920</v>
+      </c>
+      <c r="CY20" s="6" t="n">
+        <v>54550920</v>
+      </c>
+      <c r="CZ20" s="6" t="n">
+        <v>54949920</v>
+      </c>
+      <c r="DA20" s="6" t="n">
+        <v>55348920</v>
+      </c>
+      <c r="DB20" s="6" t="n">
+        <v>55747920</v>
+      </c>
+      <c r="DC20" s="6" t="n">
+        <v>56146920</v>
+      </c>
+      <c r="DD20" s="6" t="n">
+        <v>56545920</v>
+      </c>
+      <c r="DE20" s="6" t="n">
+        <v>55508520</v>
+      </c>
+      <c r="DF20" s="6" t="n">
+        <v>55907520</v>
+      </c>
+      <c r="DG20" s="6" t="n">
+        <v>56306520</v>
+      </c>
+      <c r="DH20" s="6" t="n">
+        <v>56705520</v>
+      </c>
+      <c r="DI20" s="6" t="n">
+        <v>57104520</v>
+      </c>
+      <c r="DJ20" s="6" t="n">
+        <v>57503520</v>
+      </c>
+      <c r="DK20" s="6" t="n">
+        <v>57902520</v>
+      </c>
+      <c r="DL20" s="6" t="n">
+        <v>58301520</v>
+      </c>
+      <c r="DM20" s="6" t="n">
+        <v>58700520</v>
+      </c>
+      <c r="DN20" s="6" t="n">
+        <v>59099520</v>
+      </c>
+      <c r="DO20" s="6" t="n">
+        <v>59498520</v>
+      </c>
+      <c r="DP20" s="6" t="n">
+        <v>59897520</v>
+      </c>
+      <c r="DQ20" s="6" t="n">
+        <v>58860120</v>
       </c>
     </row>
   </sheetData>
